--- a/request.xlsx
+++ b/request.xlsx
@@ -24,9 +24,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>작성및  추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>local 에서 지금내용 추가함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17/18/48</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -357,15 +365,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B2"/>
+  <dimension ref="A2:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="30.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -373,6 +384,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/request.xlsx
+++ b/request.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>작성및  추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,10 @@
   </si>
   <si>
     <t>17/18/48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.20 binary check</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -365,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C3"/>
+  <dimension ref="A2:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -395,6 +399,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
